--- a/DBS_ASG2_Tables.xlsx
+++ b/DBS_ASG2_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehtiram\OneDrive - ADA University\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B4C817-9D3B-468C-BDAC-17743B6CFEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61510A3-4155-45A8-ACD1-0ADF2D3556D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{981053DD-8C24-415A-AF2D-FA3978448F8D}"/>
   </bookViews>
@@ -36,76 +36,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Authors</t>
   </si>
   <si>
-    <t>author_id</t>
-  </si>
-  <si>
-    <t>author_name</t>
-  </si>
-  <si>
-    <t>birth_date</t>
-  </si>
-  <si>
     <t>Books</t>
   </si>
   <si>
-    <t>book_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>genre</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>stock_quantity</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>phone_number</t>
-  </si>
-  <si>
     <t>Orders</t>
   </si>
   <si>
-    <t>order_id</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>order_date</t>
-  </si>
-  <si>
-    <t>total_price</t>
-  </si>
-  <si>
     <t>OrderDetails</t>
+  </si>
+  <si>
+    <t>authorId</t>
+  </si>
+  <si>
+    <t>authorName</t>
+  </si>
+  <si>
+    <t>birthDate</t>
+  </si>
+  <si>
+    <t>bookId</t>
+  </si>
+  <si>
+    <t>bookTitle</t>
+  </si>
+  <si>
+    <t>inStock</t>
+  </si>
+  <si>
+    <t>publicationYear</t>
+  </si>
+  <si>
+    <t>customerID</t>
+  </si>
+  <si>
+    <t>customerAddress</t>
+  </si>
+  <si>
+    <t>orderID</t>
+  </si>
+  <si>
+    <t>orderDetailID</t>
+  </si>
+  <si>
+    <t>orderDate</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>bookID</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +157,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,14 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,13 +225,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -284,7 +294,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800" b="0" baseline="0"/>
-            <a:t> with red color are foreign keys, and with green color are both primary and foreign keys.</a:t>
+            <a:t> with red color are foreign keys.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -598,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38B458F-181E-48F9-8235-529DF8AC975D}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,64 +621,77 @@
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -678,12 +701,15 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -693,12 +719,15 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -708,12 +737,15 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -723,12 +755,15 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -738,12 +773,15 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -753,12 +791,15 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -768,12 +809,15 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -783,122 +827,163 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
